--- a/biology/Botanique/Onobrychis_montana/Onobrychis_montana.xlsx
+++ b/biology/Botanique/Onobrychis_montana/Onobrychis_montana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Onobrychis montana, le Sainfoin des Alpes, est une espèce de plantes dicotylédones herbacées de la famille des Fabaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Feuilles de 4 à 7 paires de folioles majoritairement. Corolle à teinte de fond purpurine (O. viciifolia très ressemblante est plus rosée et ne dépasse pas 1 200 m d'altitude).
 </t>
@@ -542,7 +556,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pelouses orophiles basiphiles.
 </t>
@@ -573,7 +589,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Sud-est de l'Europe et ouest de l'Asie. En France dans le Jura et les Alpes de 400 à 2 000 m d'altitude.
 </t>
@@ -604,7 +622,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Onobrychis viciifolia subsp. montana (D.C.) Gams</t>
         </is>
@@ -634,9 +654,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (27 décembre 2023)[2] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (27 décembre 2023) :
 Onobrychis montana subsp. cadmea (Boiss.) P.W. Ball
 Onobrychis montana subsp. montana
 Onobrychis montana subsp. scardica (Griseb.) P.W. Ball
